--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -37,21 +37,25 @@
     <sheet name="repair_handle" sheetId="30" r:id="rId23"/>
     <sheet name="repair_doHandle" sheetId="29" r:id="rId24"/>
     <sheet name="repair_state" sheetId="28" r:id="rId25"/>
-    <sheet name="Sheet11" sheetId="32" r:id="rId26"/>
-    <sheet name="Sheet10" sheetId="31" r:id="rId27"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId28"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId29"/>
-    <sheet name="sign_homepage" sheetId="9" r:id="rId30"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId31"/>
-    <sheet name="rent_scatList" sheetId="12" r:id="rId32"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId33"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId26"/>
+    <sheet name="relet_add" sheetId="31" r:id="rId27"/>
+    <sheet name="relet_doadd" sheetId="37" r:id="rId28"/>
+    <sheet name="urge_checkout" sheetId="36" r:id="rId29"/>
+    <sheet name="urge_docheckout" sheetId="38" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId31"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId32"/>
+    <sheet name="account_info_guanjia" sheetId="14" r:id="rId33"/>
+    <sheet name="sign_homepage" sheetId="9" r:id="rId34"/>
+    <sheet name="sign_select_customer" sheetId="11" r:id="rId35"/>
+    <sheet name="rent_scatList" sheetId="12" r:id="rId36"/>
+    <sheet name="rent_scatSearch" sheetId="13" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="192">
   <si>
     <t>get</t>
   </si>
@@ -995,6 +999,68 @@
   </si>
   <si>
     <t>add_client!A1</t>
+  </si>
+  <si>
+    <t>/urge/signing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_urge_signing_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约到期列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"page":1,
+"days":7,
+"community_id":1017669,
+"name_mobile":"18211078892"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/relet/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_relet_add_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"id":6
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约到期-申请退房
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_urge_checkout_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/urge/signingCheckout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1142,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1289,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1504,7 +1600,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1912,7 +2008,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3026,7 +3122,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3098,17 +3194,85 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3116,12 +3280,79 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3129,16 +3360,82 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3147,21 +3444,18 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -3183,31 +3477,31 @@
       <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3220,7 +3514,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3350,6 +3644,267 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3462,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3544,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3627,7 +4182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -38,24 +38,24 @@
     <sheet name="repair_doHandle" sheetId="29" r:id="rId24"/>
     <sheet name="repair_state" sheetId="28" r:id="rId25"/>
     <sheet name="urge_signing" sheetId="32" r:id="rId26"/>
-    <sheet name="relet_add" sheetId="31" r:id="rId27"/>
-    <sheet name="relet_doadd" sheetId="37" r:id="rId28"/>
-    <sheet name="urge_checkout" sheetId="36" r:id="rId29"/>
-    <sheet name="urge_docheckout" sheetId="38" r:id="rId30"/>
-    <sheet name="Sheet1" sheetId="35" r:id="rId31"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId32"/>
-    <sheet name="account_info_guanjia" sheetId="14" r:id="rId33"/>
-    <sheet name="sign_homepage" sheetId="9" r:id="rId34"/>
-    <sheet name="sign_select_customer" sheetId="11" r:id="rId35"/>
-    <sheet name="rent_scatList" sheetId="12" r:id="rId36"/>
-    <sheet name="rent_scatSearch" sheetId="13" r:id="rId37"/>
+    <sheet name="lock_addPwd" sheetId="40" r:id="rId27"/>
+    <sheet name="lock_doAddPwds" sheetId="39" r:id="rId28"/>
+    <sheet name="lock_upPwd" sheetId="41" r:id="rId29"/>
+    <sheet name="lock_doUpPwd" sheetId="42" r:id="rId30"/>
+    <sheet name="lock_info" sheetId="43" r:id="rId31"/>
+    <sheet name="lock_authlogs" sheetId="44" r:id="rId32"/>
+    <sheet name="lock_oplogs" sheetId="45" r:id="rId33"/>
+    <sheet name="lock_openlogs" sheetId="46" r:id="rId34"/>
+    <sheet name="lock_dynamic" sheetId="47" r:id="rId35"/>
+    <sheet name="lock_frozenpwd" sheetId="48" r:id="rId36"/>
+    <sheet name="lock_unfrozenpwd" sheetId="49" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="208">
   <si>
     <t>get</t>
   </si>
@@ -387,53 +387,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sign_homepage_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约首页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/sign/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间信息不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"house_id":"16350640"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约首页
--房间信息不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_homepage_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,102 +404,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sign_select_customer_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签约选择租客
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/common/userList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"keyword":"18211078892"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/house/scatList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>rent_scatList_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出租-分散式房态
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"admin_id":"15658",
-"search":{}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"timestamp":"",
-"access_token":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rent_scatSearch_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出租-分散式房态-筛选
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/rent/house/scatSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家个人信息
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_info_guanjia_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"access_token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"client_id":"",
 "source": 1,
 "version": "1.1.0",
 "access_token": ""
@@ -1027,40 +886,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>续租加载
+    <t>/lock/doAddPwds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-密码提交
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/relet/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_relet_add_01</t>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_doAddPwds_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-"source": 4,
+"source": 1,
 "version": "1.1.0",
 "site_id": 1,
-"access_token": "",
-"id":6
+"access_token":"",
+"house_id":1636102,
+"type_id ":1,
+"start_time":"2017-12-19",
+"end_time":"2018-12-19",
+"type":"user",
+"u_id":28
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租约到期-申请退房
+    <t>lock_addPwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-密码加载
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guanjia_urge_checkout_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/urge/signingCheckout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/addPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-修改密码加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/upPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_upPwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-修改密码提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_doUpPwds_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/doUpdPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id ":1,
+"duty_user_id":28,
+"start_time":"2017-12-19",
+"end_time":"2018-12-19",
+"rePwd_type ":0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-基本信息
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/authLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_authlogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-授权列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/opLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_oplogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-操作记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"page":1,
+"type_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/openLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_openlogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-开锁记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_dynamic_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-获取动态密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/frozenPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-冻结密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_frozenpwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/unfrozenPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_unfrozenpwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-解冻密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id":14406
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id":14406
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有门锁密码，不能授权</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,9 +1418,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1611,74 +1710,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1803,10 +1902,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>63</v>
@@ -1815,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1827,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1886,10 +1985,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -1898,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1969,10 +2068,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -1981,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2053,10 +2152,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2065,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2128,18 +2227,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2148,10 +2247,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2211,18 +2310,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2231,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2258,7 +2357,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2292,18 +2391,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2312,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2372,30 +2471,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2452,30 +2551,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2533,30 +2632,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2754,30 +2853,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2834,30 +2933,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2915,30 +3014,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2996,30 +3095,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3076,30 +3175,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3156,30 +3255,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3202,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3237,30 +3336,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3282,78 +3381,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
+      <c r="E2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3368,74 +3472,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
+      <c r="E2" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3444,73 +3552,78 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
+      <c r="E2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3647,20 +3760,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="27" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
     <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="14.75" style="27" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
@@ -3682,31 +3798,31 @@
       <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>187</v>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>135</v>
+        <v>173</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3715,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3729,73 +3845,78 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
+      <c r="E2" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3806,14 +3927,84 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3824,196 +4015,168 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
+      <c r="E2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2001</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4022,75 +4185,78 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>74</v>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4104,81 +4270,83 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>89</v>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4192,74 +4360,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="34">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>74</v>
+      <c r="E2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4505,7 +4676,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4850,10 +5021,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4873,7 +5044,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4902,7 +5073,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -49,13 +49,18 @@
     <sheet name="lock_dynamic" sheetId="47" r:id="rId35"/>
     <sheet name="lock_frozenpwd" sheetId="48" r:id="rId36"/>
     <sheet name="lock_unfrozenpwd" sheetId="49" r:id="rId37"/>
+    <sheet name="electric_info" sheetId="50" r:id="rId38"/>
+    <sheet name="electric_chargelogs" sheetId="51" r:id="rId39"/>
+    <sheet name="electric_charge" sheetId="53" r:id="rId40"/>
+    <sheet name="electric_chargesubmit" sheetId="52" r:id="rId41"/>
+    <sheet name="electric_ordersubmit" sheetId="54" r:id="rId42"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
   <si>
     <t>get</t>
   </si>
@@ -1163,6 +1168,132 @@
   </si>
   <si>
     <t>已有门锁密码，不能授权</t>
+  </si>
+  <si>
+    <t>/electric/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-基本信息
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/chargeLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-购电记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_chargelogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"page":1,
+"start_time":"2017-12-01",
+"end_time":"2017-12-30"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/chargeSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"amount":1000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_charge_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/orderSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_ordersubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-订单加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"site_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_
+chargesubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"amount":1000,
+"price":"2",
+"content":[{"account_id":4,
+"account_amount":"1000"
+         }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3381,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3930,7 +4061,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4355,7 +4486,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4418,6 +4549,176 @@
       </c>
       <c r="F2" s="30" t="s">
         <v>205</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>214</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4607,6 +4908,261 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="51.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="235">
   <si>
     <t>get</t>
   </si>
@@ -1228,40 +1228,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>electric_charge_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/orderSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_ordersubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-订单加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_
+chargesubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
 "access_token":"",
-"house_id":1636102
+"house_id":1636102,
+"site_id":1111
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>electric_charge_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-充值加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/orderSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_ordersubmit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-充值提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-订单加载
--ok</t>
+    <t>站点不存在</t>
+  </si>
+  <si>
+    <t>electric_info_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源信息不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":16361020,
+"site_id":1
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,9 +1303,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>electric_
-chargesubmit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":16361020
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":16361020,
+"amount":1000,
+"price":"2",
+"content":[{"account_id":4,
+"account_amount":"1000"
+         }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人不存在</t>
   </si>
   <si>
     <t>{
@@ -4486,7 +4536,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4568,10 +4618,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4633,7 +4683,7 @@
         <v>208</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4643,6 +4693,64 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1108</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2109</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4764,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4913,10 +5021,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4963,10 +5071,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>219</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>220</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4978,7 +5086,7 @@
         <v>217</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4988,6 +5096,35 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2109</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5001,7 +5138,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5048,10 +5185,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5083,10 +5220,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5095,7 +5232,7 @@
     <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
     <col min="3" max="4" width="9" style="27"/>
     <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="51.25" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="27" customWidth="1"/>
     <col min="7" max="7" width="9" style="27"/>
     <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
     <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
@@ -5133,10 +5270,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>223</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5145,10 +5282,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5158,6 +5295,35 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1001</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -21,7 +21,7 @@
     <sheet name="signature" sheetId="6" r:id="rId7"/>
     <sheet name="version_update" sheetId="7" r:id="rId8"/>
     <sheet name="add_client" sheetId="8" r:id="rId9"/>
-    <sheet name="guanjia_personal_info" sheetId="10" r:id="rId10"/>
+    <sheet name="account_userinfo" sheetId="10" r:id="rId10"/>
     <sheet name="guanjia_community_list" sheetId="15" r:id="rId11"/>
     <sheet name="guanjia_home_total" sheetId="16" r:id="rId12"/>
     <sheet name="subscribe_list" sheetId="17" r:id="rId13"/>
@@ -396,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/rent/account/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guanjia_personal_info_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +410,6 @@
 "version": "1.1.0",
 "access_token": ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/community_lists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1331,6 +1323,14 @@
     <t>付款人不存在</t>
   </si>
   <si>
+    <t>/account/community_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
@@ -1339,9 +1339,9 @@
 "house_id":1636102,
 "amount":1000,
 "price":"2",
-"content":[{"account_id":4,
+"content":'{"account_id":4,
 "account_amount":"1000"
-         }]
+         }'
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1891,74 +1891,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>63</v>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2178,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2261,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2345,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2372,7 +2372,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2408,18 +2408,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2491,18 +2491,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2511,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2572,18 +2572,18 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2652,30 +2652,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2732,30 +2732,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2813,30 +2813,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3034,30 +3034,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3114,30 +3114,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3195,30 +3195,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3276,30 +3276,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3356,30 +3356,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3436,30 +3436,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3517,30 +3517,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3610,22 +3610,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3695,22 +3695,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3780,22 +3780,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>170</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3988,22 +3988,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4073,22 +4073,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4158,22 +4158,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4243,10 +4243,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4340,10 +4340,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4413,22 +4413,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4498,10 +4498,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4510,13 +4510,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4595,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4680,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -4709,10 +4709,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -4721,15 +4721,15 @@
         <v>1108</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -4738,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>2109</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4823,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5083,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5100,10 +5100,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5112,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5197,10 +5197,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5223,7 +5223,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>234</v>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5311,10 +5311,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5337,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5398,7 +5398,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5743,10 +5743,10 @@
         <v>12</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5766,7 +5766,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -526,15 +526,6 @@
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
-"access_token ":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
 "access_token": ""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,21 +888,6 @@
   </si>
   <si>
     <t>lock_doAddPwds_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"type_id ":1,
-"start_time":"2017-12-19",
-"end_time":"2018-12-19",
-"type":"user",
-"u_id":28
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1342,6 +1318,30 @@
 "content":'{"account_id":4,
 "account_amount":"1000"
          }'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"type_id ":1,
+"start_time":"1513612800",
+"end_time":"1545148800",
+"type":"user",
+"u_id":28
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1891,74 +1891,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2081,7 +2081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2499,10 +2499,10 @@
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>86</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>86</v>
@@ -2660,22 +2660,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2740,22 +2740,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2821,22 +2821,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2858,7 +2858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3042,22 +3044,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3122,22 +3124,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3203,22 +3205,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3284,22 +3286,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3364,22 +3366,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3444,22 +3446,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3525,22 +3527,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3563,7 +3565,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3610,22 +3612,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3648,7 +3650,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3695,22 +3697,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>160</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3719,7 +3721,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3735,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3780,22 +3782,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>168</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>170</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3818,7 +3820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3988,22 +3992,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4073,22 +4077,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4158,22 +4162,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4243,10 +4247,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4255,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4328,10 +4332,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4340,10 +4344,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4413,22 +4417,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4451,7 +4455,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4498,10 +4502,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4510,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -4583,10 +4587,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4595,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4668,10 +4672,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4680,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4697,10 +4701,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -4709,10 +4713,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -4721,15 +4725,15 @@
         <v>1108</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -4738,10 +4742,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -4750,7 +4754,7 @@
         <v>2109</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4811,10 +4815,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4823,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4848,7 +4852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5071,10 +5077,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5083,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5100,10 +5106,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5112,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5124,7 +5130,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5185,10 +5191,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5197,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5222,7 +5228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5270,10 +5276,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5282,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5299,10 +5305,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5311,10 +5317,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5323,7 +5329,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5705,7 +5711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="239">
   <si>
     <t>get</t>
   </si>
@@ -1164,31 +1164,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"page":1,
-"start_time":"2017-12-01",
-"end_time":"2017-12-30"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/electric/chargeSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"amount":1000
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1255,17 +1231,6 @@
 "site_id": 1,
 "access_token":"",
 "house_id":16361020,
-"site_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
 "site_id":1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,21 +1276,6 @@
 "source": 1,
 "version": "1.1.0",
 "site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"amount":1000,
-"price":"2",
-"content":'{"account_id":4,
-"account_amount":"1000"
-         }'
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
 "access_token":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,6 +1292,82 @@
 "end_time":"1545148800",
 "type":"user",
 "u_id":28
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"site_id":9
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据重复</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"page":1,
+"start_time":"2017-12-01",
+"end_time":"2017-12-30"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":95
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能硬件不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"amount":1000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"amount":1000,
+"price":"2",
+"content":'{"account_id":4,
+"account_amount":"1000"
+         }'
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2038,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2095,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2178,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>91</v>
@@ -3650,7 +3676,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3712,7 +3738,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4540,7 +4566,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4623,6 +4649,149 @@
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>1110</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1108</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2109</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -4672,10 +4841,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4684,153 +4853,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29">
-        <v>1108</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>2109</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5027,10 +5053,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5077,10 +5103,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5089,10 +5115,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5106,10 +5132,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5118,10 +5144,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5130,7 +5156,36 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2116</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +5199,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5191,10 +5246,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5203,10 +5258,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5228,7 +5283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5276,10 +5331,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5288,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5305,10 +5360,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5317,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5329,7 +5384,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="28" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -921,17 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"pwd_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>智能门锁-修改密码提交
 -ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,17 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"type":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/lock/info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -984,27 +962,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/lock/authLogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1031,18 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"page":1,
-"type_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/lock/openLogs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,16 +1018,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/lock/frozenPwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1110,17 +1045,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"pwd_id":14406
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1286,21 +1210,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "access_token":"",
-"house_id":1636102,
-"type_id ":1,
-"start_time":"1513612800",
-"end_time":"1545148800",
-"type":"user",
-"u_id":28
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
 "house_id":111,
 "site_id":9
 }</t>
@@ -1368,6 +1277,100 @@
 "content":'{"account_id":4,
 "account_amount":"1000"
          }'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":1,
+"type_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"pwd_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"type_id ":1,
+"start_time":"2018-01-22",
+"end_time":"2019-01-21",
+"type":"out",
+"u_id":"",
+"duty_user_id":346,
+"user_name":"冀恒刚",
+"mobile":"1514563199"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"pwd_id":1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2121,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2204,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>91</v>
@@ -3591,6 +3594,91 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3638,107 +3726,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3747,7 +3750,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3764,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3823,7 +3826,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4018,10 +4021,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>159</v>
@@ -4030,10 +4033,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4056,7 +4059,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4103,10 +4106,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>163</v>
@@ -4115,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4141,7 +4144,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4188,10 +4191,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>163</v>
@@ -4200,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4226,7 +4229,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4273,10 +4276,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4285,10 +4288,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4311,7 +4314,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4358,10 +4361,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4370,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4395,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4443,22 +4446,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4481,7 +4484,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4528,10 +4531,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4540,13 +4543,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>194</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>200</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -4613,10 +4616,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4625,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4698,10 +4701,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4710,10 +4713,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4722,15 +4725,15 @@
         <v>1110</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -4739,10 +4742,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -4751,15 +4754,15 @@
         <v>1108</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -4768,10 +4771,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -4780,7 +4783,7 @@
         <v>2109</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4841,10 +4844,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4853,10 +4856,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5103,10 +5106,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5115,10 +5118,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5132,10 +5135,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5144,10 +5147,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5156,15 +5159,15 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -5173,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5185,7 +5188,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5258,10 +5261,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5283,7 +5286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5331,10 +5334,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5343,10 +5346,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5360,10 +5363,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5372,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5384,7 +5387,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="28" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="241">
   <si>
     <t>get</t>
   </si>
@@ -1154,17 +1154,6 @@
 "version": "1.1.0",
 "site_id": 1,
 "access_token":"",
-"house_id":16361020,
-"site_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
 "house_id":16361020
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,31 +1194,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111,
-"site_id":9
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交数据重复</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111,
-"page":1,
-"start_time":"2017-12-01",
-"end_time":"2017-12-30"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1243,42 +1208,6 @@
   </si>
   <si>
     <t>智能硬件不存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111,
-"amount":1000
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111,
-"amount":1000,
-"price":"2",
-"content":'{"account_id":4,
-"account_amount":"1000"
-         }'
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1320,17 +1249,6 @@
 "site_id": 1,
 "access_token":"",
 "house_id":1635759
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"pwd_id":1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,6 +1289,103 @@
 "access_token":"",
 "house_id":1635759,
 "pwd_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":3
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"pwd_id":1032
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"site_id":9
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"site_id":0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":1,
+"start_time":"2017-12-01",
+"end_time":"2017-12-30"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"amount":1000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"amount":1000,
+"price":"2",
+"content":"{'account_id':4,
+'account_amount':'1000'
+         }"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2207,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>91</v>
@@ -3656,7 +3671,7 @@
         <v>164</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3741,7 +3756,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3826,7 +3841,7 @@
         <v>166</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4121,7 +4136,7 @@
         <v>172</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4206,7 +4221,7 @@
         <v>175</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4291,7 +4306,7 @@
         <v>178</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4398,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4461,7 +4476,7 @@
         <v>184</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4546,7 +4561,7 @@
         <v>188</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>194</v>
@@ -4653,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4699,9 +4714,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>199</v>
@@ -4716,21 +4731,21 @@
         <v>197</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="29">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>199</v>
@@ -4745,16 +4760,16 @@
         <v>197</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
       <c r="H3" s="29">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
@@ -4774,16 +4789,16 @@
         <v>197</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
       </c>
       <c r="H4" s="29">
-        <v>2109</v>
+        <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4812,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4859,7 +4874,7 @@
         <v>200</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5058,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5121,7 +5136,7 @@
         <v>204</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5150,7 +5165,7 @@
         <v>204</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5179,7 +5194,7 @@
         <v>204</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5188,7 +5203,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5202,7 +5217,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5264,7 +5279,7 @@
         <v>203</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5286,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5349,7 +5364,7 @@
         <v>207</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5378,7 +5393,7 @@
         <v>207</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5387,7 +5402,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -5217,7 +5217,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5302,7 +5302,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="37" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -3608,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5301,7 +5301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="25" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="33" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="243">
   <si>
     <t>get</t>
   </si>
@@ -481,9 +481,829 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>管家社区楼栋单元信息
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
 "version": "1.1.0",
+"site_id": 1,
+"access_token": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"community_id ":"1017669",
+"days":"1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"access_token": "",
+"community_id ":1017669,
+"days":1,
+"page":1,
+"update_type":1,
+"name_mobile":"18211078892"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约看房-跟进记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscribe/updateLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_subscribe
+_updateLog_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_subscribe
+_handle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscribe/handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约看房-跟进处理加载页
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscribe/doHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_subscribe
+_dohandle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约看房-预约处理提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"access_token": "",
+"id ":1,
+"update_type":1,
+"look_time":"1493195640"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用催缴-周期抄表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/urge/meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_urge_meter_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"community_id":1,
+"page":1,
+"days":1,
+"name_mobile":"18211078892"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用催缴-列表接口
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_urge_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/urge/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页维修内容详情
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_lists_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页维修列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"community_id":1,
+"page":1,
+"days":1,
+"log_type":1,
+"name_mobile":"18211078892"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_logs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页维修记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修处理页面加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_handle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/doHandle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_diHandle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修处理提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/repair/state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_repair_state_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修状态
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"id":1,
+"repair_update":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"id":1,
+"repair_update":6
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家个人信息/站点/社区列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接表格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_get_sms!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_modify_pwd!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取|上传用户头像</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_avatar!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取|编辑个性签名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_info!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature!A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家版本更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>version_update!A1</t>
+  </si>
+  <si>
+    <t>客户_添加客户</t>
+  </si>
+  <si>
+    <t>add_client!A1</t>
+  </si>
+  <si>
+    <t>/urge/signing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanjia_urge_signing_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约到期列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.1.0",
+"site_id": 1,
+"access_token": "",
+"page":1,
+"days":7,
+"community_id":1017669,
+"name_mobile":"18211078892"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/doAddPwds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-密码提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_doAddPwds_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_addPwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-密码加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/addPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-修改密码加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/upPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_upPwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-修改密码提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_doUpPwds_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/doUpdPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id ":1,
+"duty_user_id":28,
+"start_time":"2017-12-19",
+"end_time":"2018-12-19",
+"rePwd_type ":0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-基本信息
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/authLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_authlogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-授权列表
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/opLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_oplogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-操作记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/openLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_openlogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-开锁记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_dynamic_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-获取动态密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/frozenPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-冻结密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_frozenpwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lock/unfrozenPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_unfrozenpwd_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁-解冻密码
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"pwd_id":14406
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有门锁密码，不能授权</t>
+  </si>
+  <si>
+    <t>/electric/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-基本信息
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/chargeLogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-购电记录
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_chargelogs_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/chargeSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_charge_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/electric/orderSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_ordersubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-充值提交
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电表-订单加载
+-ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electric_
+chargesubmit_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1636102,
+"site_id":1111
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点不存在</t>
+  </si>
+  <si>
+    <t>electric_info_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源信息不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":16361020
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":16361020,
+"amount":1000,
+"price":"2",
+"content":[{"account_id":4,
+"account_amount":"1000"
+         }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款人不存在</t>
+  </si>
+  <si>
+    <t>/account/community_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/account/userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据重复</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":95
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能硬件不存在</t>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":1,
+"type_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"pwd_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"page":3
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"pwd_id":1032
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":111,
+"site_id":9
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"amount":1000
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"amount":1000,
+"price":"2",
+"content":"{'account_id':4,
+'account_amount':'1000'
+         }"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "1.2.0",
 "site_id": 1,
 "access_token": "",
 "name":"刘小良",
@@ -492,6 +1312,7 @@
 "customer_type":"1",
 "sex":"1",
 "user_pwd":"12345678",
+"card_type_id":1,
 "account_status":"1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +1331,7 @@
 "user_pwd":"12345678",
 "company_name":"一房",
 "org_code_type":"1",
+"card_type_id":1,
 "credit_code":"1",
 "legal_name":"刘昱良",
 "account_status":"1"
@@ -517,697 +1339,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管家社区楼栋单元信息
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
+"source": 4,
+"version": "1.2.0",
 "site_id": 1,
 "access_token": "",
-"community_id ":"1017669",
-"days":"1"
+"name":"刘小良",
+"mobile":"18211078899",
+"card_no":"370481198811156472",
+"customer_type":"1",
+"sex":"1",
+"user_pwd":"12345678",
+"account_status":"1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"access_token": "",
-"community_id ":1017669,
-"days":1,
-"page":1,
-"update_type":1,
-"name_mobile":"18211078892"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约看房-跟进记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscribe/updateLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_subscribe
-_updateLog_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_subscribe
-_handle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscribe/handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约看房-跟进处理加载页
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/subscribe/doHandle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_subscribe
-_dohandle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约看房-预约处理提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"access_token": "",
-"id ":1,
-"update_type":1,
-"look_time":"1493195640"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用催缴-周期抄表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/urge/meter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_urge_meter_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"community_id":1,
-"page":1,
-"days":1,
-"name_mobile":"18211078892"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用催缴-列表接口
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_urge_lists_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/urge/lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页维修内容详情
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_info_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_lists_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页维修列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"community_id":1,
-"page":1,
-"days":1,
-"log_type":1,
-"name_mobile":"18211078892"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_logs_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页维修记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修处理页面加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_handle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/doHandle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_diHandle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修处理提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/repair/state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_repair_state_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修状态
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"id":1,
-"repair_update":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"id":1,
-"repair_update":6
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取短信验证码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家个人信息/站点/社区列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接表格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_get_sms!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_modify_pwd!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取|上传用户头像</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_avatar!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取|编辑个性签名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_info!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>signature!A1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>管家版本更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>version_update!A1</t>
-  </si>
-  <si>
-    <t>客户_添加客户</t>
-  </si>
-  <si>
-    <t>add_client!A1</t>
-  </si>
-  <si>
-    <t>/urge/signing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanjia_urge_signing_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租约到期列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "1.1.0",
-"site_id": 1,
-"access_token": "",
-"page":1,
-"days":7,
-"community_id":1017669,
-"name_mobile":"18211078892"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/doAddPwds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-密码提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_doAddPwds_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_addPwd_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-密码加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/addPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-修改密码加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/upPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_upPwd_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-修改密码提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_doUpPwds_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/doUpdPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"pwd_id ":1,
-"duty_user_id":28,
-"start_time":"2017-12-19",
-"end_time":"2018-12-19",
-"rePwd_type ":0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_info_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-基本信息
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/authLogs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_authlogs_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-授权列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/opLogs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_oplogs_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-操作记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/openLogs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_openlogs_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-开锁记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/dynamic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_dynamic_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-获取动态密码
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/frozenPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-冻结密码
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_frozenpwd_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/lock/unfrozenPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_unfrozenpwd_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁-解冻密码
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"pwd_id":14406
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有门锁密码，不能授权</t>
-  </si>
-  <si>
-    <t>/electric/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_info_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-基本信息
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/chargeLogs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-购电记录
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_chargelogs_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/chargeSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_charge_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-充值加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/electric/orderSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_ordersubmit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-充值提交
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能电表-订单加载
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>electric_
-chargesubmit_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1636102,
-"site_id":1111
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站点不存在</t>
-  </si>
-  <si>
-    <t>electric_info_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源信息不存在</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":16361020
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":16361020,
-"amount":1000,
-"price":"2",
-"content":[{"account_id":4,
-"account_amount":"1000"
-         }]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款人不存在</t>
-  </si>
-  <si>
-    <t>/account/community_lists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/account/userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交数据重复</t>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":95
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能硬件不存在</t>
+    <t>证件类型不能为空</t>
   </si>
   <si>
     <t>{
@@ -1216,50 +1364,7 @@
 "site_id": 1,
 "access_token":"",
 "house_id":1635759,
-"page":1,
-"type_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"type":2
+"type":1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,76 +1378,24 @@
 "type_id ":1,
 "start_time":"2018-01-22",
 "end_time":"2019-01-21",
-"type":"out",
-"u_id":"",
-"duty_user_id":346,
-"user_name":"冀恒刚",
-"mobile":"1514563199"
+"type":"user",
+"u_id":665
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
 "source": 1,
-"version": "1.1.0",
+"version": "1.2.0",
 "site_id": 1,
 "access_token":"",
-"house_id":1635759,
-"pwd_id":1
+"house_id":1636374
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"page":3
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"pwd_id":1032
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":111,
-"site_id":9
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"site_id":0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
+"source": 4,
 "version": "1.1.0",
 "site_id": 1,
 "access_token":"",
@@ -1350,42 +1403,6 @@
 "page":1,
 "start_time":"2017-12-01",
 "end_time":"2017-12-30"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"amount":1000
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"amount":1000,
-"price":"2",
-"content":"{'account_id':4,
-'account_amount':'1000'
-         }"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1405,6 +1422,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1452,6 +1470,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1935,74 +1954,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2139,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2166,7 +2185,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2213,7 +2232,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2222,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2249,7 +2268,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,7 +2327,7 @@
         <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2392,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2543,10 +2562,10 @@
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2555,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>86</v>
@@ -2624,10 +2643,10 @@
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2636,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>86</v>
@@ -2704,22 +2723,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2784,22 +2803,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2865,22 +2884,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3088,22 +3107,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3168,22 +3187,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3249,22 +3268,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3330,22 +3349,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3410,22 +3429,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3490,22 +3509,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3571,22 +3590,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3608,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3656,22 +3675,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>163</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3741,22 +3760,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3765,7 +3784,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3798,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3826,22 +3845,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4036,22 +4055,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4121,22 +4140,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4206,22 +4225,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4243,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4291,10 +4310,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4303,10 +4322,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4329,7 +4348,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4376,10 +4395,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4388,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4413,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4461,22 +4480,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>187</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4546,10 +4565,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4558,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -4631,10 +4650,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4643,10 +4662,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4669,7 +4688,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4714,12 +4733,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4728,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4740,15 +4759,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -4757,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -4769,15 +4788,15 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -4786,10 +4805,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -4798,7 +4817,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4811,8 +4830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4859,10 +4878,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -4871,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5121,10 +5140,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5133,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5150,10 +5169,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5162,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5174,15 +5193,15 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -5191,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5203,7 +5222,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5264,10 +5283,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5276,10 +5295,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5349,10 +5368,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -5361,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5378,10 +5397,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -5390,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5402,7 +5421,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5801,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -5838,7 +5857,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
@@ -5847,7 +5866,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5859,7 +5878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
@@ -5876,7 +5895,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5886,6 +5905,35 @@
       </c>
       <c r="I3" s="8" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1101</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="33" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -2921,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4830,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -2921,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3883,7 +3883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -54,13 +54,18 @@
     <sheet name="electric_charge" sheetId="53" r:id="rId40"/>
     <sheet name="electric_chargesubmit" sheetId="52" r:id="rId41"/>
     <sheet name="electric_ordersubmit" sheetId="54" r:id="rId42"/>
+    <sheet name="house_lists" sheetId="55" r:id="rId43"/>
+    <sheet name="house_searchbyhouseno" sheetId="56" r:id="rId44"/>
+    <sheet name="house_status" sheetId="57" r:id="rId45"/>
+    <sheet name="house_details" sheetId="58" r:id="rId46"/>
+    <sheet name="house_customer" sheetId="59" r:id="rId47"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="266">
   <si>
     <t>get</t>
   </si>
@@ -1282,21 +1287,6 @@
 "access_token":"",
 "house_id":1635759,
 "amount":1000
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"site_id": 1,
-"access_token":"",
-"house_id":1635759,
-"amount":1000,
-"price":"2",
-"content":"{'account_id':4,
-'account_amount':'1000'
-         }"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1406,12 +1396,183 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/house/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1,
+"building_id":1,
+"unit_id":1,
+"status":[1]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1,
+"building_id":1,
+"unit_id":1,
+"status":[2]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1,
+"building_id":1,
+"unit_id":1,
+"status":[3]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1,
+"building_id":1,
+"unit_id":1,
+"status":[6]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1,
+"building_id":1,
+"unit_id":1,
+"status":[8]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/house/searchByHouseNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_searchbyhouseno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759,
+"amount":1000,
+"price":"2",
+"content":"{'account_id':4,
+'account_amount':'1000'
+         }"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间号搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_no":1635759999,
+"community_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/house/state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/house/details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/house/customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-租客/住户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1635759999
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1650,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3690,7 +3857,7 @@
         <v>162</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3775,7 +3942,7 @@
         <v>155</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -3883,7 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4750,7 +4917,7 @@
         <v>195</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4893,7 +5060,7 @@
         <v>198</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5383,7 +5550,7 @@
         <v>205</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5426,6 +5593,548 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5866,7 +6575,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -5895,7 +6604,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -5924,7 +6633,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5933,7 +6642,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="42" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="51" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -59,13 +59,23 @@
     <sheet name="house_status" sheetId="57" r:id="rId45"/>
     <sheet name="house_details" sheetId="58" r:id="rId46"/>
     <sheet name="house_customer" sheetId="59" r:id="rId47"/>
+    <sheet name="signing_finduser" sheetId="61" r:id="rId48"/>
+    <sheet name="signing_add" sheetId="62" r:id="rId49"/>
+    <sheet name="signing_closesigning" sheetId="60" r:id="rId50"/>
+    <sheet name="order_confirm" sheetId="63" r:id="rId51"/>
+    <sheet name="order_pending" sheetId="64" r:id="rId52"/>
+    <sheet name="order_history" sheetId="65" r:id="rId53"/>
+    <sheet name="order_houseorderadd" sheetId="66" r:id="rId54"/>
+    <sheet name="order_add" sheetId="67" r:id="rId55"/>
+    <sheet name="order_getperiod" sheetId="68" r:id="rId56"/>
+    <sheet name="order_houselist" sheetId="69" r:id="rId57"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="316">
   <si>
     <t>get</t>
   </si>
@@ -1565,6 +1575,324 @@
 "access_token":"",
 "house_id":1635759999
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/findUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_finduser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间签约-选择租户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"keyword":"小",
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间签约-房间签约加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前房间不能签约</t>
+  </si>
+  <si>
+    <t>/signing/closeSigning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_closesigning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间签约-关闭合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":10101
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_签约待确认列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1017669,
+"page":1,
+"house_no_name":"11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1017669
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"community_id":1017669,
+"page":1,
+"house_no_name":"刘"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_待处理订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/houseOrderAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_orderadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_新增订单加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"type":2,
+"house_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"type":3,
+"house_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"type":1,
+"house_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_新增订单初始接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/getPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_getperiod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_获取订单费用周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1,
+"type":1,
+"month":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1,
+"type":2,
+"month":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1,
+"type":3,
+"month":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1,
+"type":4,
+"month":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/order/houseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_订单_房间订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"house_id":1,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_houselist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6058,8 +6386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6136,6 +6464,235 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>2009</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2109</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6247,6 +6804,1005 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="51" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="53" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -69,6 +69,9 @@
     <sheet name="order_add" sheetId="67" r:id="rId55"/>
     <sheet name="order_getperiod" sheetId="68" r:id="rId56"/>
     <sheet name="order_houselist" sheetId="69" r:id="rId57"/>
+    <sheet name="Sheet1" sheetId="70" r:id="rId58"/>
+    <sheet name="Sheet2" sheetId="71" r:id="rId59"/>
+    <sheet name="Sheet3" sheetId="72" r:id="rId60"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -7726,7 +7729,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7801,6 +7804,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7899,6 +7930,19 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="53" activeTab="56"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="53" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -69,8 +69,8 @@
     <sheet name="order_add" sheetId="67" r:id="rId55"/>
     <sheet name="order_getperiod" sheetId="68" r:id="rId56"/>
     <sheet name="order_houselist" sheetId="69" r:id="rId57"/>
-    <sheet name="Sheet1" sheetId="70" r:id="rId58"/>
-    <sheet name="Sheet2" sheetId="71" r:id="rId59"/>
+    <sheet name="user_lists" sheetId="71" r:id="rId58"/>
+    <sheet name="Sheet1" sheetId="70" r:id="rId59"/>
     <sheet name="Sheet3" sheetId="72" r:id="rId60"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="322">
   <si>
     <t>get</t>
   </si>
@@ -1896,6 +1896,52 @@
   </si>
   <si>
     <t>order_houselist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_客户_客户列表+搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":2,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":1, 
+"mobile_name":"182",
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":1, 
+"page":1
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7728,8 +7774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7782,7 +7828,7 @@
         <v>313</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
@@ -7811,14 +7857,142 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="15.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7826,12 +8000,84 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="53" activeTab="57"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="46" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1660,16 +1660,6 @@
 "version": "2.1.0",
 "site_id": 1,
 "access_token":"",
-"id":101
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
 "id":10101
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1941,6 +1931,16 @@
 "access_token":"",
 "verify_status":1, 
 "page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":101
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6635,7 +6635,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6726,7 +6726,7 @@
         <v>271</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6860,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6923,7 +6923,7 @@
         <v>276</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>285</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7022,22 +7022,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>286</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7051,22 +7051,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>285</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7136,22 +7136,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7165,22 +7165,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>286</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7194,22 +7194,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>285</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7308,22 +7308,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7337,22 +7337,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7422,22 +7422,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>297</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7451,22 +7451,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7480,22 +7480,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>297</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7565,22 +7565,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>303</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>304</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7650,22 +7650,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>307</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>308</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7679,22 +7679,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7708,22 +7708,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7737,22 +7737,22 @@
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -7834,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7859,8 +7859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7907,10 +7907,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -7919,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7936,10 +7936,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -7948,10 +7948,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>317</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>318</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -7977,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -8062,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -61,24 +61,25 @@
     <sheet name="house_customer" sheetId="59" r:id="rId47"/>
     <sheet name="signing_finduser" sheetId="61" r:id="rId48"/>
     <sheet name="signing_add" sheetId="62" r:id="rId49"/>
-    <sheet name="signing_closesigning" sheetId="60" r:id="rId50"/>
-    <sheet name="order_confirm" sheetId="63" r:id="rId51"/>
-    <sheet name="order_pending" sheetId="64" r:id="rId52"/>
-    <sheet name="order_history" sheetId="65" r:id="rId53"/>
-    <sheet name="order_houseorderadd" sheetId="66" r:id="rId54"/>
-    <sheet name="order_add" sheetId="67" r:id="rId55"/>
-    <sheet name="order_getperiod" sheetId="68" r:id="rId56"/>
-    <sheet name="order_houselist" sheetId="69" r:id="rId57"/>
-    <sheet name="user_lists" sheetId="71" r:id="rId58"/>
-    <sheet name="Sheet1" sheetId="70" r:id="rId59"/>
-    <sheet name="Sheet3" sheetId="72" r:id="rId60"/>
+    <sheet name="Sheet2" sheetId="73" r:id="rId50"/>
+    <sheet name="signing_closesigning" sheetId="60" r:id="rId51"/>
+    <sheet name="order_confirm" sheetId="63" r:id="rId52"/>
+    <sheet name="order_pending" sheetId="64" r:id="rId53"/>
+    <sheet name="order_history" sheetId="65" r:id="rId54"/>
+    <sheet name="order_houseorderadd" sheetId="66" r:id="rId55"/>
+    <sheet name="order_add" sheetId="67" r:id="rId56"/>
+    <sheet name="order_getperiod" sheetId="68" r:id="rId57"/>
+    <sheet name="order_houselist" sheetId="69" r:id="rId58"/>
+    <sheet name="user_lists" sheetId="71" r:id="rId59"/>
+    <sheet name="Sheet1" sheetId="70" r:id="rId60"/>
+    <sheet name="Sheet3" sheetId="72" r:id="rId61"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="326">
   <si>
     <t>get</t>
   </si>
@@ -1603,17 +1604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"keyword":"小",
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/signing/add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1637,10 +1627,6 @@
   </si>
   <si>
     <t>当前房间不能签约</t>
-  </si>
-  <si>
-    <t>/signing/closeSigning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signing_closesigning</t>
@@ -1935,12 +1921,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/signing/closeSigning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 4,
 "version": "2.1.0",
 "site_id": 1,
 "access_token":"",
-"id":101
+"id":10
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"keyword":"小",
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/signing/doAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-房态-房间签约-房间签约提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signing_doadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"data":{
+"sig_user_id":,
+"product_id":,
+}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6521,7 +6547,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6583,7 +6609,7 @@
         <v>266</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6635,7 +6661,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6682,10 +6708,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -6694,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6706,15 +6732,15 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -6723,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6861,7 +6887,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6906,33 +6932,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>279</v>
+        <v>157</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="29">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6942,6 +6968,91 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6993,22 +7104,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>284</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>286</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7022,22 +7133,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>285</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7051,165 +7162,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="30" t="s">
         <v>285</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>287</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7279,22 +7247,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7308,22 +7276,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7337,22 +7305,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7371,6 +7339,149 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7422,22 +7533,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7451,22 +7562,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>295</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>297</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7480,22 +7591,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>298</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7513,7 +7624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7565,22 +7676,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7598,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7650,22 +7761,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>307</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7679,22 +7790,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>306</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>308</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7708,22 +7819,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7737,22 +7848,22 @@
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7770,7 +7881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7822,10 +7933,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -7834,10 +7945,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>311</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>313</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7855,7 +7966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7907,10 +8018,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>63</v>
@@ -7919,10 +8030,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7936,10 +8047,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>63</v>
@@ -7948,10 +8059,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7965,10 +8076,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>63</v>
@@ -7977,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7989,91 +8100,6 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8180,6 +8206,91 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="46" activeTab="49"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>success</t>
   </si>
   <si>
-    <t>参数格式错误</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -1968,6 +1965,10 @@
 "product_id":,
 }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2524,74 +2525,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2687,52 +2688,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="C2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2770,51 +2771,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2853,51 +2854,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2937,51 +2938,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3020,51 +3021,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3103,51 +3104,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3184,51 +3185,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3264,51 +3265,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3344,51 +3345,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3425,51 +3426,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3491,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3509,39 +3510,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>2</v>
@@ -3567,39 +3568,39 @@
     </row>
     <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>4</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -3608,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3620,7 +3621,7 @@
         <v>91006</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3648,51 +3649,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3728,51 +3729,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3809,51 +3810,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3890,51 +3891,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3970,51 +3971,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4050,51 +4051,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4131,51 +4132,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4216,51 +4217,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4269,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4301,51 +4302,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4354,7 +4355,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4386,51 +4387,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4439,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4471,39 +4472,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
@@ -4512,10 +4513,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -4529,22 +4530,22 @@
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -4596,52 +4597,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>169</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4681,51 +4682,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4734,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4766,51 +4767,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>175</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4819,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4851,51 +4852,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>178</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4904,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4936,51 +4937,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>181</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4989,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5021,51 +5022,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5074,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5106,60 +5107,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5191,51 +5192,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>191</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5244,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5276,51 +5277,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5329,27 +5330,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>197</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5358,27 +5359,27 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5387,7 +5388,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5419,51 +5420,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5472,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5504,39 +5505,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
@@ -5545,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -5562,22 +5563,22 @@
     </row>
     <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -5591,22 +5592,22 @@
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="14">
         <v>0</v>
@@ -5620,10 +5621,10 @@
     </row>
     <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>0</v>
@@ -5632,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -5681,51 +5682,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>204</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5734,27 +5735,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>204</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5763,27 +5764,27 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>204</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5792,7 +5793,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5824,51 +5825,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5877,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5909,51 +5910,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>207</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5962,27 +5963,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>207</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5991,7 +5992,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6023,52 +6024,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>245</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6076,27 +6077,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>244</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6105,27 +6106,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>244</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -6134,27 +6135,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>244</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -6163,27 +6164,27 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>244</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="34">
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -6192,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6225,52 +6226,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>254</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6310,52 +6311,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>258</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6395,51 +6396,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>261</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6448,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6480,52 +6481,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>265</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6565,51 +6566,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6618,28 +6619,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>269</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6679,51 +6680,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>272</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6732,27 +6733,27 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6761,7 +6762,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6793,39 +6794,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -6834,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6886,7 +6887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -6905,51 +6906,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>325</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6958,7 +6959,7 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6990,52 +6991,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>277</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>320</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7075,51 +7076,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>282</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7128,28 +7129,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>283</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7157,27 +7158,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>282</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7186,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7218,51 +7219,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>288</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7271,28 +7272,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>283</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7300,27 +7301,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>282</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7329,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7361,51 +7362,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7414,27 +7415,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7443,27 +7444,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>291</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7472,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7504,51 +7505,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7557,28 +7558,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>295</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7586,27 +7587,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>294</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7615,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7647,52 +7648,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>301</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7732,52 +7733,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>305</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7785,27 +7786,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>304</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7814,27 +7815,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>304</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7843,27 +7844,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>304</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7872,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7904,52 +7905,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>311</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7957,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7989,51 +7990,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>315</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8042,28 +8043,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>316</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -8071,27 +8072,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>315</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8100,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8131,39 +8132,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -8172,10 +8173,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8228,52 +8229,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>311</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8321,51 +8322,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8402,51 +8403,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8488,51 +8489,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8546,22 +8547,22 @@
     </row>
     <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8575,22 +8576,22 @@
     </row>
     <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8599,7 +8600,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="51" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -1756,17 +1756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"type":1,
-"house_id":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/order/add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,6 +1958,17 @@
   </si>
   <si>
     <t>账号错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"type":1,
+"house_id":1
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3492,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6610,7 +6610,7 @@
         <v>265</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6935,10 +6935,10 @@
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>156</v>
@@ -6947,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7032,10 +7032,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>319</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7486,8 +7486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7549,7 +7549,7 @@
         <v>291</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7629,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7677,10 +7677,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>299</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>279</v>
@@ -7689,10 +7689,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>279</v>
@@ -7774,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>279</v>
@@ -7803,10 +7803,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7820,10 +7820,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>279</v>
@@ -7832,10 +7832,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>279</v>
@@ -7861,10 +7861,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7934,10 +7934,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -7946,10 +7946,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8019,10 +8019,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -8031,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -8060,10 +8060,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>62</v>
@@ -8089,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -8270,10 +8270,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="51" activeTab="55"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="38" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -592,11 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用催缴-周期抄表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/urge/meter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,6 +1964,11 @@
 "type":1,
 "house_id":1
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-首页-费用催缴-周期抄表
+-ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2525,74 +2525,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2729,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>88</v>
@@ -3332,7 +3332,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3374,22 +3374,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3413,7 +3413,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3455,22 +3455,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3678,22 +3678,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3758,22 +3758,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3839,22 +3839,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3920,22 +3920,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>100</v>
@@ -4012,10 +4012,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4080,22 +4080,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4161,22 +4161,22 @@
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4246,22 +4246,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4331,22 +4331,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4416,22 +4416,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4626,22 +4626,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>167</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>168</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4711,22 +4711,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>171</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4796,22 +4796,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>174</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>177</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -4893,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -4978,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5051,22 +5051,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5148,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>190</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5233,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5306,10 +5306,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5318,10 +5318,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5330,15 +5330,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>195</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>196</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -5347,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5359,15 +5359,15 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>62</v>
@@ -5376,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5461,10 +5461,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5711,10 +5711,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5723,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -5752,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5764,15 +5764,15 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>62</v>
@@ -5781,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5866,10 +5866,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -5951,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>206</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -5980,10 +5980,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6005,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6082,10 +6082,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -6094,10 +6094,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6111,10 +6111,10 @@
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>62</v>
@@ -6123,10 +6123,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -6140,10 +6140,10 @@
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>62</v>
@@ -6152,10 +6152,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -6169,10 +6169,10 @@
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>242</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>62</v>
@@ -6181,10 +6181,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -6255,10 +6255,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6267,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6352,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>260</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6437,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6522,10 +6522,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6607,10 +6607,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6624,10 +6624,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>266</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>267</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -6636,10 +6636,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -6721,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6733,15 +6733,15 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -6750,10 +6750,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6935,22 +6935,22 @@
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>322</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>323</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6959,7 +6959,7 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7020,22 +7020,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>318</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7105,22 +7105,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>281</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7134,22 +7134,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7163,22 +7163,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>281</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7248,22 +7248,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>287</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7277,22 +7277,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>281</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7306,22 +7306,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>281</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7391,22 +7391,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>290</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7420,22 +7420,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>290</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7449,22 +7449,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>290</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7534,22 +7534,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>293</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7563,22 +7563,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>294</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7592,22 +7592,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>293</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7629,7 +7629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7677,22 +7677,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7762,22 +7762,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7791,22 +7791,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>302</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7820,22 +7820,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>302</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7849,22 +7849,22 @@
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>302</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7934,10 +7934,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -7946,10 +7946,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8019,10 +8019,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -8031,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8048,10 +8048,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>62</v>
@@ -8060,10 +8060,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>62</v>
@@ -8089,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -8270,10 +8270,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8600,7 +8600,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -6006,7 +6006,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="38" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="56" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -20,66 +20,68 @@
     <sheet name="user_avatar" sheetId="5" r:id="rId6"/>
     <sheet name="signature" sheetId="6" r:id="rId7"/>
     <sheet name="version_update" sheetId="7" r:id="rId8"/>
-    <sheet name="add_client" sheetId="8" r:id="rId9"/>
-    <sheet name="account_userinfo" sheetId="10" r:id="rId10"/>
-    <sheet name="guanjia_community_list" sheetId="15" r:id="rId11"/>
-    <sheet name="guanjia_home_total" sheetId="16" r:id="rId12"/>
-    <sheet name="subscribe_list" sheetId="17" r:id="rId13"/>
-    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId14"/>
-    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId15"/>
-    <sheet name="subscribe_handle" sheetId="21" r:id="rId16"/>
-    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId17"/>
-    <sheet name="urge_meter" sheetId="23" r:id="rId18"/>
-    <sheet name="urge_lists" sheetId="24" r:id="rId19"/>
-    <sheet name="repair_info" sheetId="25" r:id="rId20"/>
-    <sheet name="repair_lists" sheetId="26" r:id="rId21"/>
-    <sheet name="repair_logs" sheetId="27" r:id="rId22"/>
-    <sheet name="repair_handle" sheetId="30" r:id="rId23"/>
-    <sheet name="repair_doHandle" sheetId="29" r:id="rId24"/>
-    <sheet name="repair_state" sheetId="28" r:id="rId25"/>
-    <sheet name="urge_signing" sheetId="32" r:id="rId26"/>
-    <sheet name="lock_addPwd" sheetId="40" r:id="rId27"/>
-    <sheet name="lock_doAddPwds" sheetId="39" r:id="rId28"/>
-    <sheet name="lock_upPwd" sheetId="41" r:id="rId29"/>
-    <sheet name="lock_doUpPwd" sheetId="42" r:id="rId30"/>
-    <sheet name="lock_info" sheetId="43" r:id="rId31"/>
-    <sheet name="lock_authlogs" sheetId="44" r:id="rId32"/>
-    <sheet name="lock_oplogs" sheetId="45" r:id="rId33"/>
-    <sheet name="lock_openlogs" sheetId="46" r:id="rId34"/>
-    <sheet name="lock_dynamic" sheetId="47" r:id="rId35"/>
-    <sheet name="lock_frozenpwd" sheetId="48" r:id="rId36"/>
-    <sheet name="lock_unfrozenpwd" sheetId="49" r:id="rId37"/>
-    <sheet name="electric_info" sheetId="50" r:id="rId38"/>
-    <sheet name="electric_chargelogs" sheetId="51" r:id="rId39"/>
-    <sheet name="electric_charge" sheetId="53" r:id="rId40"/>
-    <sheet name="electric_chargesubmit" sheetId="52" r:id="rId41"/>
-    <sheet name="electric_ordersubmit" sheetId="54" r:id="rId42"/>
-    <sheet name="house_lists" sheetId="55" r:id="rId43"/>
-    <sheet name="house_searchbyhouseno" sheetId="56" r:id="rId44"/>
-    <sheet name="house_status" sheetId="57" r:id="rId45"/>
-    <sheet name="house_details" sheetId="58" r:id="rId46"/>
-    <sheet name="house_customer" sheetId="59" r:id="rId47"/>
-    <sheet name="signing_finduser" sheetId="61" r:id="rId48"/>
-    <sheet name="signing_add" sheetId="62" r:id="rId49"/>
-    <sheet name="Sheet2" sheetId="73" r:id="rId50"/>
-    <sheet name="signing_closesigning" sheetId="60" r:id="rId51"/>
-    <sheet name="order_confirm" sheetId="63" r:id="rId52"/>
-    <sheet name="order_pending" sheetId="64" r:id="rId53"/>
-    <sheet name="order_history" sheetId="65" r:id="rId54"/>
-    <sheet name="order_houseorderadd" sheetId="66" r:id="rId55"/>
-    <sheet name="order_add" sheetId="67" r:id="rId56"/>
-    <sheet name="order_getperiod" sheetId="68" r:id="rId57"/>
-    <sheet name="order_houselist" sheetId="69" r:id="rId58"/>
-    <sheet name="user_lists" sheetId="71" r:id="rId59"/>
-    <sheet name="Sheet1" sheetId="70" r:id="rId60"/>
-    <sheet name="Sheet3" sheetId="72" r:id="rId61"/>
+    <sheet name="account_userinfo" sheetId="10" r:id="rId9"/>
+    <sheet name="guanjia_community_list" sheetId="15" r:id="rId10"/>
+    <sheet name="guanjia_home_total" sheetId="16" r:id="rId11"/>
+    <sheet name="subscribe_list" sheetId="17" r:id="rId12"/>
+    <sheet name="subscribe_detail_info" sheetId="18" r:id="rId13"/>
+    <sheet name="subscribe_updateLog" sheetId="20" r:id="rId14"/>
+    <sheet name="subscribe_handle" sheetId="21" r:id="rId15"/>
+    <sheet name="subscribe_dohandle" sheetId="22" r:id="rId16"/>
+    <sheet name="urge_meter" sheetId="23" r:id="rId17"/>
+    <sheet name="urge_lists" sheetId="24" r:id="rId18"/>
+    <sheet name="repair_info" sheetId="25" r:id="rId19"/>
+    <sheet name="repair_lists" sheetId="26" r:id="rId20"/>
+    <sheet name="repair_logs" sheetId="27" r:id="rId21"/>
+    <sheet name="repair_handle" sheetId="30" r:id="rId22"/>
+    <sheet name="repair_doHandle" sheetId="29" r:id="rId23"/>
+    <sheet name="repair_state" sheetId="28" r:id="rId24"/>
+    <sheet name="urge_signing" sheetId="32" r:id="rId25"/>
+    <sheet name="lock_addPwd" sheetId="40" r:id="rId26"/>
+    <sheet name="lock_doAddPwds" sheetId="39" r:id="rId27"/>
+    <sheet name="lock_upPwd" sheetId="41" r:id="rId28"/>
+    <sheet name="lock_doUpPwd" sheetId="42" r:id="rId29"/>
+    <sheet name="lock_info" sheetId="43" r:id="rId30"/>
+    <sheet name="lock_authlogs" sheetId="44" r:id="rId31"/>
+    <sheet name="lock_oplogs" sheetId="45" r:id="rId32"/>
+    <sheet name="lock_openlogs" sheetId="46" r:id="rId33"/>
+    <sheet name="lock_dynamic" sheetId="47" r:id="rId34"/>
+    <sheet name="lock_frozenpwd" sheetId="48" r:id="rId35"/>
+    <sheet name="lock_unfrozenpwd" sheetId="49" r:id="rId36"/>
+    <sheet name="electric_info" sheetId="50" r:id="rId37"/>
+    <sheet name="electric_chargelogs" sheetId="51" r:id="rId38"/>
+    <sheet name="electric_charge" sheetId="53" r:id="rId39"/>
+    <sheet name="electric_chargesubmit" sheetId="52" r:id="rId40"/>
+    <sheet name="electric_ordersubmit" sheetId="54" r:id="rId41"/>
+    <sheet name="house_lists" sheetId="55" r:id="rId42"/>
+    <sheet name="house_searchbyhouseno" sheetId="56" r:id="rId43"/>
+    <sheet name="house_status" sheetId="57" r:id="rId44"/>
+    <sheet name="house_details" sheetId="58" r:id="rId45"/>
+    <sheet name="house_customer" sheetId="59" r:id="rId46"/>
+    <sheet name="signing_finduser" sheetId="61" r:id="rId47"/>
+    <sheet name="signing_add" sheetId="62" r:id="rId48"/>
+    <sheet name="Sheet2" sheetId="73" r:id="rId49"/>
+    <sheet name="signing_closesigning" sheetId="60" r:id="rId50"/>
+    <sheet name="order_confirm" sheetId="63" r:id="rId51"/>
+    <sheet name="order_pending" sheetId="64" r:id="rId52"/>
+    <sheet name="order_history" sheetId="65" r:id="rId53"/>
+    <sheet name="order_houseorderadd" sheetId="66" r:id="rId54"/>
+    <sheet name="order_add" sheetId="67" r:id="rId55"/>
+    <sheet name="order_getperiod" sheetId="68" r:id="rId56"/>
+    <sheet name="order_houselist" sheetId="69" r:id="rId57"/>
+    <sheet name="user_lists" sheetId="71" r:id="rId58"/>
+    <sheet name="user_esignauth" sheetId="70" r:id="rId59"/>
+    <sheet name="user_auth" sheetId="72" r:id="rId60"/>
+    <sheet name="user_show" sheetId="75" r:id="rId61"/>
+    <sheet name="user_upd" sheetId="74" r:id="rId62"/>
+    <sheet name="add_client" sheetId="8" r:id="rId63"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="342">
   <si>
     <t>get</t>
   </si>
@@ -1868,40 +1870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"verify_status":2,
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"verify_status":1, 
-"mobile_name":"182",
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"verify_status":1, 
-"page":1
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/signing/closeSigning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,6 +1937,142 @@
   <si>
     <t>管家-首页-费用催缴-周期抄表
 -ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":1, 
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":2,
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"verify_status":1, 
+"mobile_name":"182",
+"page":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/esignAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_客户_e签宝认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_esignAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":1,
+"auth_type":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":1,
+"auth_type":2
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_客户_客户认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_客户_显示客户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/upd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家_客户_更新客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":1,
+"name":"刘LLL",
+"mobile":"18211078989",
+"card_no":"370481198811156472",
+"customer_type":1,
+"sex":1,
+"user_pwd":"12345678",
+"company_name":"124",
+"card_type_id":1,
+"org_code_type":1,
+"credit_code":"123",
+"legal_name":"刘LL",
+"account_status":1
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2514,7 +2618,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2673,89 +2777,6 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -2917,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3001,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3084,12 +3105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3167,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3247,12 +3268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3327,7 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3377,7 +3398,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3408,7 +3429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3484,6 +3505,86 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3592,7 +3693,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3632,86 +3733,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3792,7 +3813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3873,7 +3894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3953,12 +3974,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4033,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4114,7 +4135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4194,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4279,7 +4300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4364,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4447,6 +4468,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4584,7 +4690,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="27" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
     <col min="3" max="4" width="9" style="27"/>
     <col min="5" max="5" width="23" style="27" customWidth="1"/>
@@ -4626,22 +4732,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4664,7 +4770,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4711,10 +4817,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>159</v>
@@ -4723,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4745,91 +4851,6 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4914,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -4999,7 +5020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5084,7 +5105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5169,7 +5190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5254,7 +5275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -5397,7 +5418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -5474,6 +5495,149 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>2109</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2116</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5661,149 +5825,6 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29">
-        <v>2109</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>2116</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5887,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6001,12 +6022,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6203,7 +6224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6288,7 +6309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6373,7 +6394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6458,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -6543,7 +6564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6610,7 +6631,7 @@
         <v>264</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6657,7 +6678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -6769,6 +6790,91 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>2009</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6933,33 +7039,33 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="29">
-        <v>2009</v>
+        <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>272</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6969,91 +7075,6 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7118,6 +7139,149 @@
       </c>
       <c r="E2" s="34" t="s">
         <v>277</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>284</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>282</v>
@@ -7248,10 +7412,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>278</v>
@@ -7260,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>282</v>
@@ -7277,10 +7441,10 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>278</v>
@@ -7289,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>281</v>
@@ -7306,10 +7470,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>278</v>
@@ -7318,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>283</v>
@@ -7340,149 +7504,6 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="9" style="27"/>
-    <col min="5" max="5" width="23" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
-    <col min="7" max="7" width="9" style="27"/>
-    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -7549,7 +7570,7 @@
         <v>290</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7625,7 +7646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7710,7 +7731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7882,7 +7903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -7967,12 +7988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8034,7 +8055,7 @@
         <v>310</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8063,7 +8084,7 @@
         <v>310</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8092,7 +8113,7 @@
         <v>310</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8101,6 +8122,120 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8211,7 +8346,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8258,10 +8393,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>62</v>
@@ -8270,10 +8405,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8293,14 +8428,315 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="9" style="27"/>
+    <col min="5" max="5" width="23" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9" style="27"/>
+    <col min="8" max="8" width="12.5" style="27" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="34.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1101</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8389,7 +8825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8468,26 +8906,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="34.125" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -8509,19 +8944,19 @@
       <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>62</v>
@@ -8530,10 +8965,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8542,65 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29">
-        <v>1101</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -8601,7 +8601,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="56" activeTab="62"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -90,15 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"mobile":"18211078892",
-"password": "12345678"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -2072,6 +2063,15 @@
 "credit_code":"123",
 "legal_name":"刘LL",
 "account_status":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"mobile":"18211078892",
+"password": "l11y22l33"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2629,74 +2629,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2792,52 +2792,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2875,51 +2875,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2959,51 +2959,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3042,51 +3042,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3125,51 +3125,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3206,51 +3206,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3286,52 +3286,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3366,52 +3366,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3447,51 +3447,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3527,52 +3527,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3593,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3611,39 +3611,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -3652,39 +3652,39 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -3693,15 +3693,15 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -3710,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>91006</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3750,52 +3750,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3831,51 +3831,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3912,51 +3912,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3992,51 +3992,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4072,51 +4072,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4153,52 +4153,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4238,51 +4238,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4323,51 +4323,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>155</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4408,51 +4408,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>162</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4494,52 +4494,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>167</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4578,39 +4578,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
@@ -4619,11 +4619,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="14">
         <v>0</v>
       </c>
@@ -4631,28 +4631,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="14">
         <v>0</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -4703,51 +4703,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4788,51 +4788,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>173</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4873,51 +4873,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>176</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4958,51 +4958,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>179</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5043,51 +5043,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5128,60 +5128,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5213,51 +5213,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>189</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5298,51 +5298,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5351,27 +5351,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>195</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5380,27 +5380,27 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5441,51 +5441,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5526,51 +5526,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>202</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5579,27 +5579,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>202</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5608,27 +5608,27 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>202</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5669,39 +5669,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
@@ -5710,11 +5710,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="14">
         <v>0</v>
       </c>
@@ -5722,27 +5722,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -5751,28 +5751,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="G4" s="14">
         <v>0</v>
       </c>
@@ -5780,15 +5780,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5846,51 +5846,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5931,51 +5931,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>205</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5984,27 +5984,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>205</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6045,52 +6045,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>243</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6098,27 +6098,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6127,27 +6127,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -6156,27 +6156,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -6185,27 +6185,27 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="C6" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="34">
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6247,52 +6247,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6332,52 +6332,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>256</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6417,51 +6417,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6502,52 +6502,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>263</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6587,51 +6587,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>266</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6640,28 +6640,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>267</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6701,51 +6701,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>270</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6754,27 +6754,27 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6783,7 +6783,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6816,51 +6816,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>319</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6900,39 +6900,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -6941,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -7012,52 +7012,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>275</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>314</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7097,51 +7097,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>280</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7150,28 +7150,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>281</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7179,27 +7179,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>280</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7240,51 +7240,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7293,28 +7293,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>281</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7322,27 +7322,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>280</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7383,51 +7383,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>289</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7436,27 +7436,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>289</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7465,27 +7465,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>289</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7526,51 +7526,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>292</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>293</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7608,27 +7608,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>292</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7669,52 +7669,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>298</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7754,52 +7754,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>302</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7807,27 +7807,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>301</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7836,27 +7836,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>301</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7865,27 +7865,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>301</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7926,52 +7926,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>308</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8011,51 +8011,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>312</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8064,27 +8064,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>312</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8093,27 +8093,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>312</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8154,52 +8154,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>329</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8207,27 +8207,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8267,39 +8267,39 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -8308,10 +8308,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8364,52 +8364,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>334</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8449,51 +8449,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>337</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8534,52 +8534,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>341</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8600,7 +8600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8619,51 +8619,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8672,27 +8672,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8701,27 +8701,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8758,52 +8758,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8841,52 +8841,52 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8924,52 +8924,52 @@
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="343">
   <si>
     <t>get</t>
   </si>
@@ -253,18 +253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"access_token":"",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id": "2"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改密码-ok</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -272,18 +260,6 @@
     <t>重置密码
 （找回密码）-ok</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 1,
-"version": "1.1.0",
-"access_token":"",
-"mobile":"18211078892",
-"password":"12345678",
-"sms_code":"",
-"type_id": "3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>test_get_sms_01</t>
@@ -1974,17 +1950,6 @@
   </si>
   <si>
     <t>user_esignAuth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"source": 4,
-"version": "2.1.0",
-"site_id": 1,
-"access_token":"",
-"id":1,
-"auth_type":1
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2068,10 +2033,55 @@
   </si>
   <si>
     <t>{
+"source": 4,
+"version": "2.1.0",
+"site_id": 1,
+"access_token":"",
+"id":1,
+"auth_type":1,
+"mtype":1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
 "source": 1,
 "version": "1.1.0",
 "mobile":"18211078892",
 "password": "l11y22l33"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"access_token":"",
+"mobile":"18211078892",
+"password":"l11y22l33",
+"sms_code":"",
+"type_id": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"mobile":"18211078892",
+"type_id": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"access_token":"",
+"mobile":"18211078892",
+"password":"l11y22l33",
+"sms_code":"",
+"type_id": "2"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2629,74 +2639,74 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -2821,10 +2831,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2833,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2904,10 +2914,10 @@
     </row>
     <row r="2" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -2916,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2988,10 +2998,10 @@
     </row>
     <row r="2" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3000,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3063,18 +3073,18 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3083,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3146,18 +3156,18 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3166,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3227,19 +3237,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3247,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3307,30 +3317,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3387,18 +3397,18 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3407,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3468,30 +3478,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3548,30 +3558,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3593,8 +3603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3655,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3693,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3771,30 +3781,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3852,30 +3862,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3933,30 +3943,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4013,30 +4023,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4093,30 +4103,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4174,30 +4184,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4267,22 +4277,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>159</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4291,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4352,22 +4362,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4376,7 +4386,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4437,22 +4447,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4461,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4523,23 +4533,23 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>166</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -4547,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4607,7 +4617,7 @@
     </row>
     <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>39</v>
@@ -4732,22 +4742,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4756,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4817,22 +4827,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4841,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4902,22 +4912,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4926,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4987,22 +4997,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5011,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5072,22 +5082,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5096,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5157,31 +5167,31 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5242,23 +5252,23 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>190</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -5266,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5327,22 +5337,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5351,27 +5361,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5380,27 +5390,27 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5409,7 +5419,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5470,22 +5480,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5494,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5555,22 +5565,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5579,27 +5589,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5608,27 +5618,27 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5637,7 +5647,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5661,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5698,7 +5708,7 @@
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>39</v>
@@ -5713,7 +5723,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -5730,7 +5740,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>0</v>
@@ -5742,7 +5752,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -5785,10 +5795,10 @@
     </row>
     <row r="5" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>0</v>
@@ -5800,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -5875,22 +5885,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5899,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5960,22 +5970,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5984,27 +5994,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6013,7 +6023,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -6074,23 +6084,23 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>242</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6098,28 +6108,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>243</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -6127,27 +6137,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -6156,27 +6166,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -6185,27 +6195,27 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="34">
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -6214,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6276,22 +6286,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>250</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6300,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6361,23 +6371,23 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>255</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6446,22 +6456,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6470,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6531,23 +6541,23 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>262</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6616,22 +6626,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6640,28 +6650,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>266</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -6669,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6730,22 +6740,22 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>270</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>267</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>269</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6754,27 +6764,27 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>270</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6783,7 +6793,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6845,22 +6855,22 @@
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>316</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>318</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6869,7 +6879,7 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6929,10 +6939,10 @@
     </row>
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -6941,10 +6951,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -7041,22 +7051,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>274</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7065,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7126,23 +7136,23 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>281</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7150,28 +7160,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>280</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7179,27 +7189,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7208,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7269,22 +7279,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7293,28 +7303,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>280</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7322,27 +7332,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7351,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7412,22 +7422,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7436,27 +7446,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7465,27 +7475,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7494,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7555,22 +7565,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7579,28 +7589,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7608,28 +7618,28 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="34">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="34">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>293</v>
-      </c>
       <c r="G4" s="31">
         <v>0</v>
       </c>
@@ -7637,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7698,23 +7708,23 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7722,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7783,23 +7793,23 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>301</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7807,28 +7817,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>302</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -7836,27 +7846,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7865,27 +7875,27 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7894,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7955,23 +7965,23 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>307</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -7979,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8040,22 +8050,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8064,27 +8074,27 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8093,27 +8103,27 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8122,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8136,7 +8146,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8183,22 +8193,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8207,28 +8217,28 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>329</v>
-      </c>
       <c r="G3" s="31">
         <v>0</v>
       </c>
@@ -8236,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8296,10 +8306,10 @@
     </row>
     <row r="2" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -8308,10 +8318,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8393,23 +8403,23 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>333</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8478,22 +8488,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8502,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8563,23 +8573,23 @@
     </row>
     <row r="2" spans="1:9" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>340</v>
-      </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8640,30 +8650,30 @@
         <v>10</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8677,22 +8687,22 @@
     </row>
     <row r="3" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8706,22 +8716,22 @@
     </row>
     <row r="4" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8730,7 +8740,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -8744,7 +8754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8787,22 +8799,22 @@
     </row>
     <row r="2" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8870,22 +8882,22 @@
     </row>
     <row r="2" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8953,22 +8965,22 @@
     </row>
     <row r="2" spans="1:9" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8977,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="23" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -800,11 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>租约到期列表
--ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 4,
 "version": "1.1.0",
@@ -2083,6 +2078,11 @@
 "sms_code":"",
 "type_id": "2"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家-首页-租约到期列表
+-ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>85</v>
@@ -3408,7 +3408,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4195,7 +4195,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>100</v>
@@ -4207,7 +4207,7 @@
         <v>146</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -4277,22 +4277,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>157</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4362,22 +4362,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>152</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>1001</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4447,22 +4447,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>159</v>
-      </c>
       <c r="F2" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4533,22 +4533,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>163</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>164</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4742,22 +4742,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>167</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4827,22 +4827,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>170</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4912,10 +4912,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>173</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -4924,10 +4924,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>176</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5009,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5082,22 +5082,22 @@
     </row>
     <row r="2" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>180</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5167,10 +5167,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5179,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" s="29">
         <v>0</v>
@@ -5252,10 +5252,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>186</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5264,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5349,10 +5349,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5361,15 +5361,15 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -5378,10 +5378,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5390,15 +5390,15 @@
         <v>1110</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>59</v>
@@ -5407,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>1108</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5492,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>199</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5577,10 +5577,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>198</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>199</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -5606,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -5618,15 +5618,15 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>199</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>59</v>
@@ -5635,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>2116</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5723,7 +5723,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G5" s="14">
         <v>0</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5897,10 +5897,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>201</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>202</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -5982,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -5999,10 +5999,10 @@
     </row>
     <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -6011,10 +6011,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>1001</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6096,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6113,10 +6113,10 @@
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -6125,10 +6125,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>59</v>
@@ -6154,10 +6154,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>59</v>
@@ -6183,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -6200,10 +6200,10 @@
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>59</v>
@@ -6212,10 +6212,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="31">
         <v>0</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6298,10 +6298,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6371,10 +6371,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>251</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>252</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6383,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6456,10 +6456,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>258</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6553,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6638,10 +6638,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -6667,10 +6667,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -6752,10 +6752,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6764,15 +6764,15 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -6781,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>2109</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6855,22 +6855,22 @@
     </row>
     <row r="2" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>315</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>316</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>2009</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7051,22 +7051,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>272</v>
-      </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>310</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>311</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7136,22 +7136,22 @@
     </row>
     <row r="2" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7165,22 +7165,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>278</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7194,22 +7194,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7279,22 +7279,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>283</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7308,22 +7308,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>278</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7337,22 +7337,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>277</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7422,22 +7422,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7451,22 +7451,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7480,22 +7480,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7565,22 +7565,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>289</v>
-      </c>
       <c r="C2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="34">
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7594,22 +7594,22 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>289</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>290</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7623,22 +7623,22 @@
     </row>
     <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>289</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7708,22 +7708,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>294</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>295</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7793,22 +7793,22 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="34">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>298</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>299</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -7822,22 +7822,22 @@
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>298</v>
-      </c>
       <c r="C3" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -7851,22 +7851,22 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>298</v>
-      </c>
       <c r="C4" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -7880,22 +7880,22 @@
     </row>
     <row r="5" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>298</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G5" s="31">
         <v>0</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -7977,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -8062,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8079,10 +8079,10 @@
     </row>
     <row r="3" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -8091,10 +8091,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="4" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>59</v>
@@ -8120,10 +8120,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8146,7 +8146,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8193,10 +8193,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -8205,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8222,10 +8222,10 @@
     </row>
     <row r="3" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>59</v>
@@ -8234,10 +8234,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G3" s="31">
         <v>0</v>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>329</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -8415,10 +8415,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="2" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>333</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -8500,10 +8500,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8573,10 +8573,10 @@
     </row>
     <row r="2" spans="1:9" ht="332.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>336</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>59</v>
@@ -8585,10 +8585,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>62</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="31">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>1101</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -8754,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8977,10 +8977,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="23" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="9930" tabRatio="688" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="34" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="344">
   <si>
     <t>get</t>
   </si>
@@ -2083,6 +2083,15 @@
   <si>
     <t>管家-首页-租约到期列表
 -ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"source": 1,
+"version": "1.1.0",
+"mobile":"18211078892",
+"type_id": "2"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4149,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4661,7 +4670,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
@@ -5660,7 +5669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -2119,30 +2119,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>/common/quickLogin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quicklogin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_get_sms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "source": 1,
-"version": "1.1.0",
+"version": "2.2.1",
 "mobile":"18211078892",
 "type_id": 6
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/common/quickLogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_quicklogin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_get_sms</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "source": 1,
-"version": "1.1.0",
+"version": "2.2.1",
 "access_token":"",
 "mobile":"18211078892",
 "sms_code":""
@@ -3668,7 +3668,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4630,7 +4630,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="2" spans="1:9" s="26" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>346</v>
@@ -4692,7 +4692,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="3" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>347</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>352</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -2110,15 +2110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取短信验证码-ok
-快捷登陆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷登陆-ok</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>/common/quickLogin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2148,6 +2139,16 @@
 "sms_code":""
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取短信验证码-ok
+快捷登陆(管家端)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷登陆-ok
+(管家端)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2238,6 +2239,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4630,7 +4632,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4675,12 +4677,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="26" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="26" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>0</v>
@@ -4692,7 +4694,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G2" s="13">
         <v>0</v>
@@ -4706,11 +4708,11 @@
     </row>
     <row r="3" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="11" t="s">
         <v>347</v>
       </c>
+      <c r="B3" s="15" t="s">
+        <v>352</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -4718,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -4632,7 +4632,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testData/case/guanjia_accounts.xlsx
+++ b/testData/case/guanjia_accounts.xlsx
@@ -3670,7 +3670,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4632,7 +4632,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
